--- a/Data/Output/CompanyStockData.xlsx
+++ b/Data/Output/CompanyStockData.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\UiPath\StockPrice\Data\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19764" windowHeight="5928" firstSheet="0" activeTab="0"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="CompanyStockInfo" sheetId="2" r:id="rId1"/>
+    <x:sheet name="CompanyStockInfo" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
@@ -52,36 +46,34 @@
     <x:t>18/10/2024 15:51</x:t>
   </x:si>
   <x:si>
+    <x:t>Just Dial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/10/2024 15:59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DLF</x:t>
+  </x:si>
+  <x:si>
     <x:t>Aditya Birla F</x:t>
   </x:si>
   <x:si>
-    <x:t>18/10/2024 15:59</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ceat</x:t>
   </x:si>
   <x:si>
     <x:t>18/10/2024 16:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Just Dial</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Company Not Listed</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -97,32 +89,38 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -410,24 +408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:H6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A6" sqref="A6"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="13.664062" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.777344" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -453,7 +444,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -470,117 +461,117 @@
         <x:v>28371.7</x:v>
       </x:c>
       <x:c r="F2" s="0">
-        <x:v>319.77</x:v>
+        <x:v>319.78</x:v>
       </x:c>
       <x:c r="G2" s="0">
-        <x:v>310.34</x:v>
+        <x:v>310.35</x:v>
       </x:c>
       <x:c r="H2" s="0">
-        <x:v>310.6</x:v>
+        <x:v>310.61</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>334.05</x:v>
+        <x:v>1199.6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0">
-        <x:v>330.9</x:v>
+        <x:v>1194.95</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>330.7</x:v>
+        <x:v>1194.4</x:v>
       </x:c>
       <x:c r="F3" s="0">
-        <x:v>3.65</x:v>
+        <x:v>13.13</x:v>
       </x:c>
       <x:c r="G3" s="0">
-        <x:v>3.62</x:v>
+        <x:v>13.08</x:v>
       </x:c>
       <x:c r="H3" s="0">
-        <x:v>3.62</x:v>
+        <x:v>13.07</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>2972.85</x:v>
+        <x:v>875.15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="0">
+        <x:v>860.9</x:v>
+      </x:c>
+      <x:c r="E4" s="0">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
+        <x:v>9.58</x:v>
+      </x:c>
+      <x:c r="G4" s="0">
+        <x:v>9.42</x:v>
+      </x:c>
+      <x:c r="H4" s="0">
+        <x:v>9.42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D4" s="0">
-        <x:v>2799</x:v>
-      </x:c>
-      <x:c r="E4" s="0">
-        <x:v>2891.75</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>32.54</x:v>
-      </x:c>
-      <x:c r="G4" s="0">
-        <x:v>30.64</x:v>
-      </x:c>
-      <x:c r="H4" s="0">
-        <x:v>31.65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="B5" s="0">
-        <x:v>1199.6</x:v>
+        <x:v>334.05</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="0">
-        <x:v>1194.95</x:v>
+        <x:v>330.9</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>1194.4</x:v>
+        <x:v>330.7</x:v>
       </x:c>
       <x:c r="F5" s="0">
-        <x:v>13.13</x:v>
+        <x:v>3.65</x:v>
       </x:c>
       <x:c r="G5" s="0">
-        <x:v>13.08</x:v>
+        <x:v>3.62</x:v>
       </x:c>
       <x:c r="H5" s="0">
-        <x:v>13.07</x:v>
+        <x:v>3.62</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B6" s="0">
+        <x:v>2972.85</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B6" s="0">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="D6" s="0">
-        <x:v>0</x:v>
+        <x:v>2799</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>0</x:v>
+        <x:v>2891.75</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>0</x:v>
+        <x:v>32.54</x:v>
       </x:c>
       <x:c r="G6" s="0">
-        <x:v>0</x:v>
+        <x:v>30.64</x:v>
       </x:c>
       <x:c r="H6" s="0">
-        <x:v>0</x:v>
+        <x:v>31.65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/CompanyStockData.xlsx
+++ b/Data/Output/CompanyStockData.xlsx
@@ -43,13 +43,13 @@
     <x:t>Abbott India</x:t>
   </x:si>
   <x:si>
-    <x:t>18/10/2024 15:51</x:t>
+    <x:t>22/10/2024 15:57</x:t>
   </x:si>
   <x:si>
     <x:t>Just Dial</x:t>
   </x:si>
   <x:si>
-    <x:t>18/10/2024 15:59</x:t>
+    <x:t>22/10/2024 15:59</x:t>
   </x:si>
   <x:si>
     <x:t>DLF</x:t>
@@ -58,10 +58,19 @@
     <x:t>Aditya Birla F</x:t>
   </x:si>
   <x:si>
+    <x:t>22/10/2024 15:58</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ceat</x:t>
   </x:si>
   <x:si>
-    <x:t>18/10/2024 16:00</x:t>
+    <x:t>22/10/2024 15:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Company Not Listed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -449,25 +458,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>29209.55</x:v>
+        <x:v>29028.1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="0">
-        <x:v>28347.95</x:v>
+        <x:v>29220</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>28371.7</x:v>
+        <x:v>29174.6</x:v>
       </x:c>
       <x:c r="F2" s="0">
-        <x:v>319.78</x:v>
+        <x:v>319.32</x:v>
       </x:c>
       <x:c r="G2" s="0">
-        <x:v>310.35</x:v>
+        <x:v>321.44</x:v>
       </x:c>
       <x:c r="H2" s="0">
-        <x:v>310.61</x:v>
+        <x:v>320.94</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -475,25 +484,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>1199.6</x:v>
+        <x:v>1111.4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0">
-        <x:v>1194.95</x:v>
+        <x:v>1167.6</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>1194.4</x:v>
+        <x:v>1162.95</x:v>
       </x:c>
       <x:c r="F3" s="0">
-        <x:v>13.13</x:v>
+        <x:v>12.22</x:v>
       </x:c>
       <x:c r="G3" s="0">
-        <x:v>13.08</x:v>
+        <x:v>12.84</x:v>
       </x:c>
       <x:c r="H3" s="0">
-        <x:v>13.07</x:v>
+        <x:v>12.79</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -501,25 +510,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>875.15</x:v>
+        <x:v>815.15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0">
-        <x:v>860.9</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>861</x:v>
+        <x:v>860.75</x:v>
       </x:c>
       <x:c r="F4" s="0">
-        <x:v>9.58</x:v>
+        <x:v>8.96</x:v>
       </x:c>
       <x:c r="G4" s="0">
-        <x:v>9.42</x:v>
+        <x:v>9.43</x:v>
       </x:c>
       <x:c r="H4" s="0">
-        <x:v>9.42</x:v>
+        <x:v>9.46</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -527,51 +536,77 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>334.05</x:v>
+        <x:v>307.65</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="0">
-        <x:v>330.9</x:v>
+        <x:v>324.95</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>330.7</x:v>
+        <x:v>324.2</x:v>
       </x:c>
       <x:c r="F5" s="0">
-        <x:v>3.65</x:v>
+        <x:v>3.38</x:v>
       </x:c>
       <x:c r="G5" s="0">
-        <x:v>3.62</x:v>
+        <x:v>3.57</x:v>
       </x:c>
       <x:c r="H5" s="0">
-        <x:v>3.62</x:v>
+        <x:v>3.56</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>2972.85</x:v>
+        <x:v>2901</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D6" s="0">
-        <x:v>2799</x:v>
+        <x:v>2960</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>2891.75</x:v>
+        <x:v>2971.5</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>32.54</x:v>
+        <x:v>31.91</x:v>
       </x:c>
       <x:c r="G6" s="0">
-        <x:v>30.64</x:v>
+        <x:v>32.56</x:v>
       </x:c>
       <x:c r="H6" s="0">
-        <x:v>31.65</x:v>
+        <x:v>32.68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="0">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
